--- a/RACI/RACI.xlsx
+++ b/RACI/RACI.xlsx
@@ -9,8 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="36">
   <si>
     <t>Project Team Members</t>
   </si>
@@ -113,13 +112,28 @@
   </si>
   <si>
     <t>Deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Create Configuration Management plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Create RACI Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Create CI List  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Create CCB  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Create Test plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +193,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +236,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -490,19 +539,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -702,19 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -731,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -778,116 +801,118 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -986,14 +1011,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -1058,14 +1083,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -1389,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,69 +1434,70 @@
       <c r="A1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:56" s="1" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="54"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" spans="1:56" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="40"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:56" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="55" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="57"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="5" spans="1:56" s="10" customFormat="1" ht="95.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
@@ -1487,7 +1513,7 @@
       <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -1500,99 +1526,99 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9"/>
-      <c r="N5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="V5" s="37"/>
-    </row>
-    <row r="6" spans="1:56" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="33"/>
-      <c r="AO6" s="33"/>
-      <c r="AP6" s="33"/>
-      <c r="AQ6" s="33"/>
-      <c r="AR6" s="33"/>
-      <c r="AS6" s="33"/>
-      <c r="AT6" s="33"/>
-      <c r="AU6" s="33"/>
-      <c r="AV6" s="33"/>
-      <c r="AW6" s="33"/>
-      <c r="AX6" s="33"/>
-      <c r="AY6" s="33"/>
-      <c r="AZ6" s="33"/>
-      <c r="BA6" s="33"/>
-      <c r="BB6" s="33"/>
-      <c r="BC6" s="33"/>
-      <c r="BD6" s="33"/>
+      <c r="N5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="V5" s="25"/>
+    </row>
+    <row r="6" spans="1:56" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21"/>
     </row>
     <row r="7" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="12"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
     </row>
     <row r="8" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -1640,7 +1666,7 @@
       <c r="E9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="14" t="s">
@@ -1658,13 +1684,13 @@
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="12"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="56"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -1675,7 +1701,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>4</v>
@@ -1686,8 +1712,12 @@
       <c r="E11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="H11" s="12" t="s">
         <v>4</v>
       </c>
@@ -1712,7 +1742,7 @@
       <c r="E12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="17" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -1754,212 +1784,295 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="24"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="47" t="s">
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:56" ht="24" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="G15" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="58"/>
-    </row>
-    <row r="15" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="59"/>
-    </row>
-    <row r="16" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="34"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="14" t="s">
+      <c r="I17" s="34"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="I18" s="34"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="35"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
+      <c r="F19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="35"/>
     </row>
     <row r="20" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12"/>
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="56"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="12"/>
+      <c r="A21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="12"/>
+      <c r="A23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -1967,88 +2080,162 @@
     </row>
     <row r="24" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="56"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="24"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A25" s="15"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="14"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:48" s="32" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="43"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="43"/>
-      <c r="AF26" s="43"/>
-      <c r="AG26" s="43"/>
-      <c r="AH26" s="43"/>
-      <c r="AI26" s="43"/>
-      <c r="AJ26" s="43"/>
-      <c r="AK26" s="43"/>
-      <c r="AL26" s="43"/>
-      <c r="AM26" s="43"/>
-      <c r="AN26" s="43"/>
-      <c r="AO26" s="43"/>
-      <c r="AP26" s="43"/>
-      <c r="AQ26" s="43"/>
-      <c r="AR26" s="43"/>
-      <c r="AS26" s="43"/>
-      <c r="AT26" s="43"/>
-      <c r="AU26" s="43"/>
-      <c r="AV26" s="43"/>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="L27" s="44"/>
+    <row r="26" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:48" s="20" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="60"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
+      <c r="AO31" s="31"/>
+      <c r="AP31" s="31"/>
+      <c r="AQ31" s="31"/>
+      <c r="AR31" s="31"/>
+      <c r="AS31" s="31"/>
+      <c r="AT31" s="31"/>
+      <c r="AU31" s="31"/>
+      <c r="AV31" s="31"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="L32" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/RACI/RACI.xlsx
+++ b/RACI/RACI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="37">
   <si>
     <t>Project Team Members</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve"> - Create Test plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Create Skill Matrix</t>
   </si>
 </sst>
 </file>
@@ -849,6 +852,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,10 +906,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -876,43 +915,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1011,14 +1014,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -1083,14 +1086,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -1414,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD32"/>
+  <dimension ref="A1:BD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,73 +1434,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="1" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:56" s="1" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="48"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="61"/>
     </row>
     <row r="3" spans="1:56" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:56" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="50" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:56" s="10" customFormat="1" ht="95.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
@@ -1533,18 +1536,18 @@
       <c r="V5" s="25"/>
     </row>
     <row r="6" spans="1:56" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
       <c r="M6" s="22"/>
       <c r="N6" s="21"/>
       <c r="O6" s="27"/>
@@ -1594,13 +1597,13 @@
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="56"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -1684,13 +1687,13 @@
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="56"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -1972,65 +1975,66 @@
       <c r="L19" s="40"/>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="35"/>
+    </row>
+    <row r="21" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="47"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
+      <c r="L21" s="36"/>
     </row>
     <row r="22" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" s="13" t="s">
         <v>7</v>
       </c>
@@ -2038,7 +2042,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>6</v>
@@ -2050,7 +2054,7 @@
     </row>
     <row r="23" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>6</v>
@@ -2059,19 +2063,19 @@
         <v>4</v>
       </c>
       <c r="D23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>4</v>
-      </c>
       <c r="H23" s="12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -2079,60 +2083,76 @@
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="56"/>
+      <c r="A24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12"/>
+      <c r="A25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="56"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12"/>
+      <c r="A27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="47"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -2140,12 +2160,12 @@
     </row>
     <row r="28" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="38"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="39"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="14"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
@@ -2153,89 +2173,103 @@
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="56"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="12"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
-      <c r="L29" s="19"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
-      <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="1:48" s="20" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="31"/>
-      <c r="AI31" s="31"/>
-      <c r="AJ31" s="31"/>
-      <c r="AK31" s="31"/>
-      <c r="AL31" s="31"/>
-      <c r="AM31" s="31"/>
-      <c r="AN31" s="31"/>
-      <c r="AO31" s="31"/>
-      <c r="AP31" s="31"/>
-      <c r="AQ31" s="31"/>
-      <c r="AR31" s="31"/>
-      <c r="AS31" s="31"/>
-      <c r="AT31" s="31"/>
-      <c r="AU31" s="31"/>
-      <c r="AV31" s="31"/>
-    </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="L32" s="32"/>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:48" s="20" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="31"/>
+      <c r="AH32" s="31"/>
+      <c r="AI32" s="31"/>
+      <c r="AJ32" s="31"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="31"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="31"/>
+      <c r="AO32" s="31"/>
+      <c r="AP32" s="31"/>
+      <c r="AQ32" s="31"/>
+      <c r="AR32" s="31"/>
+      <c r="AS32" s="31"/>
+      <c r="AT32" s="31"/>
+      <c r="AU32" s="31"/>
+      <c r="AV32" s="31"/>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
